--- a/Android/architecture/YUV_sampling.xlsx
+++ b/Android/architecture/YUV_sampling.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\autocode\Android\architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70F9D4-6FA0-4D5B-8EDA-24C1018B921C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB4F245-E092-4F6F-B7CA-A47DB1CA5320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{418D435C-7A9F-4D6D-8A87-34797D9510DA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>bpp</t>
   </si>
@@ -151,15 +151,6 @@
     <t xml:space="preserve">    BYTE *pDestV = pDest + (lDestStride * dwHeightInPixels);</t>
   </si>
   <si>
-    <t xml:space="preserve">    BYTE *pDestU = pDest + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   (lDestStride * dwHeightInPixels) + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   ((lDestStride * dwHeightInPixels) / 4);</t>
-  </si>
-  <si>
     <t xml:space="preserve">    // Convert the Y plane.</t>
   </si>
   <si>
@@ -266,6 +257,12 @@
   </si>
   <si>
     <t>Sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BYTE *pDestU = pDest +  (lDestStride * dwHeightInPixels) +  ((lDestStride * dwHeightInPixels) / 4);</t>
   </si>
 </sst>
 </file>
@@ -314,10 +311,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,13 +461,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -524,13 +522,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>79808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3711</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>35408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -568,13 +566,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -621,13 +619,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -674,13 +672,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -727,13 +725,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -780,13 +778,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -836,13 +834,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -896,13 +894,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -949,6 +947,294 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Image layout in memory.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F75FD64-AA39-1F5C-4E4F-BED43FE12A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6705600" y="16389350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>168481</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>61278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4892E8-CA44-4352-9898-4BF01C64BCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10496550"/>
+          <a:ext cx="5654881" cy="3375978"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425451</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>136988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D79298-B631-84E8-DE6D-7EFB734CA630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="13995401"/>
+          <a:ext cx="3473450" cy="873587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFFEFB2-1DC4-88A9-69BA-487F1E04C9E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3003550" y="15259050"/>
+          <a:ext cx="95250" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FAB34A-1E0B-89D8-0814-D465CDEC91F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6096000" y="22834600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>51936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>427014</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DEA611-F69F-A4EC-CE65-3B7F3DF01F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5816600" y="21045036"/>
+          <a:ext cx="3754414" cy="2208664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1253,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF004491-BF20-4427-8654-9CE47AF0A808}">
-  <dimension ref="B9:S168"/>
+  <dimension ref="B9:S193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="R71" sqref="R71"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1509,332 +1795,331 @@
         <v>345600</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.35">
-      <c r="N66"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="1" t="s">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B84" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="N93"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B116" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="1" t="s">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B117" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="1" t="s">
+      <c r="L117"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B118" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="1" t="s">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B119" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="1" t="s">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B120" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="1" t="s">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B121" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="1" t="s">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B122" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="1" t="s">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B123" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="1" t="s">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B124" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="1" t="s">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B125" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="1" t="s">
+      <c r="K125"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B126" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="1" t="s">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B128" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="1" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="1" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="2" t="s">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="2" t="s">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="2" t="s">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B124" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B125" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B127" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B129" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B130" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B131" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B132" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B133" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B134" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B137" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B138" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B140" s="1" t="s">
-        <v>61</v>
+      <c r="B140" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B141" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B142" s="2" t="s">
-        <v>62</v>
+      <c r="B142" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B144" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B145" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B149" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B150" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B151" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B152" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B153" s="1" t="s">
-        <v>49</v>
+      <c r="B153" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154" s="1" t="s">
-        <v>71</v>
+      <c r="B154" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B155" s="1" t="s">
-        <v>72</v>
+      <c r="B155" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B156" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="2" t="s">
-        <v>73</v>
+      <c r="B157" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B158" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B159" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B160" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B168"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B162" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B165" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B166" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B167" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B169" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B170" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B171" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B172" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B174" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B175" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B176" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B177" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B178" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B179" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B180" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B181" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B182" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B183" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B184" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B185" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B193"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
